--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H2">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I2">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J2">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>74.30539196267222</v>
+        <v>44.58803603352623</v>
       </c>
       <c r="R2">
-        <v>668.74852766405</v>
+        <v>401.2923243017361</v>
       </c>
       <c r="S2">
-        <v>0.03108294975962584</v>
+        <v>0.02426893374568761</v>
       </c>
       <c r="T2">
-        <v>0.03108294975962585</v>
+        <v>0.02426893374568762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H3">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I3">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J3">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
-        <v>778.0713981319584</v>
+        <v>352.2537792711117</v>
       </c>
       <c r="R3">
-        <v>7002.642583187625</v>
+        <v>3170.284013440005</v>
       </c>
       <c r="S3">
-        <v>0.3254777821465078</v>
+        <v>0.1917290912829335</v>
       </c>
       <c r="T3">
-        <v>0.3254777821465078</v>
+        <v>0.1917290912829335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H4">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I4">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J4">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>519.4154256687028</v>
+        <v>259.6982847072094</v>
       </c>
       <c r="R4">
-        <v>4674.738831018325</v>
+        <v>2337.284562364885</v>
       </c>
       <c r="S4">
-        <v>0.2172784929059453</v>
+        <v>0.1413518294613602</v>
       </c>
       <c r="T4">
-        <v>0.2172784929059453</v>
+        <v>0.1413518294613602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.929813666666668</v>
+      </c>
+      <c r="H5">
+        <v>26.789441</v>
+      </c>
+      <c r="I5">
+        <v>0.3579859341865942</v>
+      </c>
+      <c r="J5">
+        <v>0.3579859341865942</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>19.72450833333333</v>
-      </c>
-      <c r="H5">
-        <v>59.173525</v>
-      </c>
-      <c r="I5">
-        <v>0.5834853563809828</v>
-      </c>
-      <c r="J5">
-        <v>0.5834853563809829</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>23.05957422618611</v>
+        <v>1.168635784743</v>
       </c>
       <c r="R5">
-        <v>207.536168035675</v>
+        <v>10.517722062687</v>
       </c>
       <c r="S5">
-        <v>0.009646131568903834</v>
+        <v>0.000636079696612835</v>
       </c>
       <c r="T5">
-        <v>0.009646131568903836</v>
+        <v>0.0006360796966128351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.305287</v>
       </c>
       <c r="I6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N6">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q6">
-        <v>2.894795503926</v>
+        <v>3.836893043928</v>
       </c>
       <c r="R6">
-        <v>26.053159535334</v>
+        <v>34.532037395352</v>
       </c>
       <c r="S6">
-        <v>0.001210932084957227</v>
+        <v>0.002088392119409843</v>
       </c>
       <c r="T6">
-        <v>0.001210932084957227</v>
+        <v>0.002088392119409844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.305287</v>
       </c>
       <c r="I7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>118.340805</v>
       </c>
       <c r="O7">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P7">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q7">
         <v>30.312168815115</v>
@@ -883,10 +883,10 @@
         <v>272.809519336035</v>
       </c>
       <c r="S7">
-        <v>0.01267998991054152</v>
+        <v>0.0164986862419548</v>
       </c>
       <c r="T7">
-        <v>0.01267998991054152</v>
+        <v>0.0164986862419548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.305287</v>
       </c>
       <c r="I8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N8">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q8">
-        <v>20.235428401359</v>
+        <v>22.347576407355</v>
       </c>
       <c r="R8">
-        <v>182.118855612231</v>
+        <v>201.128187666195</v>
       </c>
       <c r="S8">
-        <v>0.008464753199605192</v>
+        <v>0.0121636183033267</v>
       </c>
       <c r="T8">
-        <v>0.008464753199605194</v>
+        <v>0.0121636183033267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>2.305287</v>
       </c>
       <c r="I9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N9">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q9">
-        <v>0.8983567683209998</v>
+        <v>0.100563534801</v>
       </c>
       <c r="R9">
-        <v>8.085210914888998</v>
+        <v>0.905071813209</v>
       </c>
       <c r="S9">
-        <v>0.0003757947782573983</v>
+        <v>5.473597808799043E-05</v>
       </c>
       <c r="T9">
-        <v>0.0003757947782573983</v>
+        <v>5.473597808799044E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H10">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N10">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q10">
-        <v>50.14729632210378</v>
+        <v>76.127551273032</v>
       </c>
       <c r="R10">
-        <v>451.3256668989341</v>
+        <v>685.147961457288</v>
       </c>
       <c r="S10">
-        <v>0.02097729183561884</v>
+        <v>0.0414356554452739</v>
       </c>
       <c r="T10">
-        <v>0.02097729183561884</v>
+        <v>0.04143565544527391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H11">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>118.340805</v>
       </c>
       <c r="O11">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P11">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q11">
-        <v>525.1055937027817</v>
+        <v>601.421816884185</v>
       </c>
       <c r="R11">
-        <v>4725.950343325036</v>
+        <v>5412.796351957665</v>
       </c>
       <c r="S11">
-        <v>0.219658767102143</v>
+        <v>0.3273493861940581</v>
       </c>
       <c r="T11">
-        <v>0.219658767102143</v>
+        <v>0.3273493861940581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H12">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N12">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q12">
-        <v>350.5435955221812</v>
+        <v>443.3968446087449</v>
       </c>
       <c r="R12">
-        <v>3154.892359699631</v>
+        <v>3990.571601478704</v>
       </c>
       <c r="S12">
-        <v>0.1466371239068115</v>
+        <v>0.2413375784653407</v>
       </c>
       <c r="T12">
-        <v>0.1466371239068115</v>
+        <v>0.2413375784653408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H13">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N13">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q13">
-        <v>15.56246823060989</v>
+        <v>1.995274709019</v>
       </c>
       <c r="R13">
-        <v>140.062214075489</v>
+        <v>17.957472381171</v>
       </c>
       <c r="S13">
-        <v>0.00650999080108243</v>
+        <v>0.001086013065953798</v>
       </c>
       <c r="T13">
-        <v>0.006509990801082431</v>
+        <v>0.001086013065953798</v>
       </c>
     </row>
   </sheetData>
